--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfigProto" sheetId="1" r:id="rId1"/>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>

--- a/Unity/Assets/Config/Excel/SceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="18705" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfigProto" sheetId="1" r:id="rId1"/>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -1135,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
